--- a/menu-excel/info.xlsx
+++ b/menu-excel/info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>title</t>
   </si>
@@ -28,6 +28,9 @@
     <t>phone</t>
   </si>
   <si>
+    <t>color</t>
+  </si>
+  <si>
     <t>the big times</t>
   </si>
   <si>
@@ -36,16 +39,19 @@
   <si>
     <t>info@barmga.com</t>
   </si>
+  <si>
+    <t>orange</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -66,12 +72,74 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -80,30 +148,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,52 +162,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -171,11 +170,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,23 +199,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +223,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -229,25 +271,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,145 +391,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,62 +428,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -506,6 +456,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -523,10 +499,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -535,139 +541,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -676,7 +682,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1023,18 +1029,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="4" max="4" width="12.8888888888889"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,19 +1053,25 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>21626373656</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/menu-excel/info.xlsx
+++ b/menu-excel/info.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>title</t>
   </si>
@@ -40,7 +40,10 @@
     <t>info@barmga.com</t>
   </si>
   <si>
-    <t>orange</t>
+    <t>+21626373656</t>
+  </si>
+  <si>
+    <t>blue</t>
   </si>
 </sst>
 </file>
@@ -683,6 +686,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1032,7 +1036,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1067,11 +1071,11 @@
       <c r="C2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>21626373656</v>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
